--- a/examples/sources/data/unsolved/to_schedule/2019-03-15.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-03-15.xlsx
@@ -4569,7 +4569,7 @@
         <v>0</v>
       </c>
       <c r="M84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -4824,7 +4824,7 @@
         <v>0</v>
       </c>
       <c r="M90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N90">
         <v>1</v>
